--- a/results/mp/logistic/corona/confidence/84/masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="115">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,28 +40,34 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>death</t>
   </si>
   <si>
-    <t>arrested</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>forced</t>
@@ -70,55 +76,49 @@
     <t>hell</t>
   </si>
   <si>
-    <t>die</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>stress</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>selfish</t>
+    <t>shame</t>
   </si>
   <si>
     <t>emergency</t>
@@ -127,31 +127,22 @@
     <t>no</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>stop</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>stop</t>
+    <t>fight</t>
   </si>
   <si>
     <t>demand</t>
@@ -160,30 +151,27 @@
     <t>oil</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -193,6 +181,9 @@
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -205,166 +196,157 @@
     <t>great</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>sharing</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>won</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>ensure</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>hope</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>team</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>alert</t>
   </si>
   <si>
-    <t>dear</t>
+    <t>important</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>sure</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>your</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>your</t>
+    <t>are</t>
   </si>
   <si>
     <t>and</t>
@@ -734,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -742,10 +724,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -803,13 +785,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -821,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -874,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K4">
         <v>0.9322033898305084</v>
@@ -903,13 +885,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8611111111111112</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -924,16 +906,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -945,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -974,16 +956,16 @@
         <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.8947368421052632</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L6">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="M6">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -995,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1003,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8333333333333334</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1021,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1053,13 +1035,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8235294117647058</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1071,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.8660714285714286</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1095,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1103,13 +1085,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8082191780821918</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1121,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1145,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1153,13 +1135,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7894736842105263</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C10">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1174,16 +1156,16 @@
         <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.8381201044386423</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1195,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>62</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1203,13 +1185,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7586206896551724</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1224,16 +1206,16 @@
         <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>313</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1245,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1253,13 +1235,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7391304347826086</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1271,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K12">
         <v>0.8125</v>
@@ -1303,13 +1285,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7027027027027027</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1321,31 +1303,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K13">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L13">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>47</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>11</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13">
-        <v>0.8055555555555556</v>
-      </c>
-      <c r="L13">
-        <v>29</v>
-      </c>
-      <c r="M13">
-        <v>29</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1353,13 +1335,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.68</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1371,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.8</v>
+        <v>0.8046875</v>
       </c>
       <c r="L14">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="M14">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1395,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1403,13 +1385,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6538461538461539</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1421,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="K15">
-        <v>0.7926829268292683</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L15">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="M15">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1445,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1453,13 +1435,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6521739130434783</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1471,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K16">
-        <v>0.7890625</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L16">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="M16">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1495,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1503,13 +1485,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6086956521739131</v>
+        <v>0.64</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1524,16 +1506,16 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K17">
-        <v>0.7830188679245284</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L17">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1545,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1553,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1571,10 +1553,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K18">
         <v>0.7777777777777778</v>
@@ -1603,13 +1585,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5932203389830508</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1621,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K19">
         <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1645,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1653,13 +1635,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5384615384615384</v>
+        <v>0.5368217054263565</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1671,19 +1653,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>239</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1695,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1703,13 +1685,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5343915343915344</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C21">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1721,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1745,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1753,13 +1735,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5294117647058824</v>
+        <v>0.5291005291005291</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1771,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K22">
-        <v>0.7676056338028169</v>
+        <v>0.775</v>
       </c>
       <c r="L22">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="M22">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1795,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1803,13 +1785,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.525</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1821,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K23">
-        <v>0.7659574468085106</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1845,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1853,13 +1835,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5161290322580645</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1871,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L24">
         <v>36</v>
@@ -1895,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1903,13 +1885,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5161290322580645</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="D25">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1921,19 +1903,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K25">
-        <v>0.7407407407407407</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1945,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1953,13 +1935,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5077519379844961</v>
+        <v>0.4363636363636363</v>
       </c>
       <c r="C26">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>262</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1971,19 +1953,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>254</v>
+        <v>31</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="K26">
-        <v>0.7301587301587301</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1995,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2003,13 +1985,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4630872483221476</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C27">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2021,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>0.7272727272727273</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2045,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2074,16 +2056,16 @@
         <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K28">
-        <v>0.7209302325581395</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2095,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2103,13 +2085,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4166666666666667</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2124,16 +2106,16 @@
         <v>21</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K29">
-        <v>0.7083333333333334</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2145,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2153,13 +2135,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4133333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2171,19 +2153,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K30">
-        <v>0.6842105263157895</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2195,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2203,13 +2185,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3916666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C31">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D31">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2221,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="K31">
-        <v>0.6818181818181818</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2245,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2253,13 +2235,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3846153846153846</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2271,19 +2253,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K32">
-        <v>0.675</v>
+        <v>0.6529411764705882</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>222</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2295,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>13</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2303,49 +2285,49 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3783783783783784</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C33">
+        <v>19</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>37</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K33">
+        <v>0.65</v>
+      </c>
+      <c r="L33">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>14</v>
-      </c>
-      <c r="D33">
-        <v>14</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>23</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K33">
-        <v>0.6571428571428571</v>
-      </c>
-      <c r="L33">
-        <v>23</v>
-      </c>
-      <c r="M33">
-        <v>23</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2353,13 +2335,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2371,10 +2353,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K34">
         <v>0.6428571428571429</v>
@@ -2403,13 +2385,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3272727272727273</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2421,31 +2403,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>188</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K35">
-        <v>0.6285714285714286</v>
+        <v>0.6054421768707483</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2453,13 +2435,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3090909090909091</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2471,19 +2453,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K36">
-        <v>0.611764705882353</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="M36">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2495,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>132</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2503,13 +2485,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2745098039215687</v>
+        <v>0.1875</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2521,19 +2503,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K37">
-        <v>0.6086956521739131</v>
+        <v>0.6</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2545,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2553,13 +2535,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2727272727272727</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D38">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2571,19 +2553,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>56</v>
+        <v>319</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K38">
-        <v>0.6071428571428571</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>142</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2595,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>11</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2603,13 +2585,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2444444444444444</v>
+        <v>0.06</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2621,19 +2603,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>68</v>
+        <v>282</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K39">
-        <v>0.5864406779661017</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L39">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="M39">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2645,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2653,37 +2635,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2380952380952381</v>
+        <v>0.01168770453482936</v>
       </c>
       <c r="C40">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D40">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>192</v>
+        <v>2114</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K40">
-        <v>0.5851063829787234</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L40">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2695,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2703,37 +2685,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1420911528150134</v>
+        <v>0.009255363904080775</v>
       </c>
       <c r="C41">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>320</v>
+        <v>2355</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K41">
-        <v>0.5846153846153846</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M41">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2745,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2753,37 +2735,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.04666666666666667</v>
+        <v>0.009026434558349452</v>
       </c>
       <c r="C42">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>286</v>
+        <v>3074</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>0.5833333333333334</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2795,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2803,37 +2785,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01430976430976431</v>
+        <v>0.00608695652173913</v>
       </c>
       <c r="C43">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E43">
-        <v>0.08</v>
+        <v>0.39</v>
       </c>
       <c r="F43">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2342</v>
+        <v>2286</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K43">
-        <v>0.5815899581589958</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L43">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="M43">
-        <v>139</v>
+        <v>52</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2845,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>100</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2853,37 +2835,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01288244766505636</v>
+        <v>0.005109150023223409</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D44">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E44">
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="F44">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>3065</v>
+        <v>4284</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K44">
-        <v>0.58</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L44">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2895,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2903,37 +2885,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.009813084112149532</v>
+        <v>0.005035246727089627</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E45">
-        <v>0.12</v>
+        <v>0.55</v>
       </c>
       <c r="F45">
-        <v>0.88</v>
+        <v>0.45</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>2119</v>
+        <v>4940</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K45">
-        <v>0.5757575757575758</v>
+        <v>0.5280898876404494</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2945,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2953,31 +2935,31 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.007378472222222222</v>
+        <v>0.004862867146469559</v>
       </c>
       <c r="C46">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E46">
-        <v>0.23</v>
+        <v>0.49</v>
       </c>
       <c r="F46">
-        <v>0.77</v>
+        <v>0.51</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>2287</v>
+        <v>5116</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K46">
-        <v>0.5652173913043478</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L46">
         <v>13</v>
@@ -2995,267 +2977,171 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47">
-        <v>0.006608357628765792</v>
-      </c>
-      <c r="C47">
-        <v>34</v>
-      </c>
-      <c r="D47">
-        <v>54</v>
-      </c>
-      <c r="E47">
-        <v>0.37</v>
-      </c>
-      <c r="F47">
-        <v>0.63</v>
-      </c>
-      <c r="G47" t="b">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>5111</v>
-      </c>
       <c r="J47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L47">
+        <v>13</v>
+      </c>
+      <c r="M47">
+        <v>13</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48">
+        <v>0.4523809523809524</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>19</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50">
+        <v>0.4117647058823529</v>
+      </c>
+      <c r="L50">
+        <v>21</v>
+      </c>
+      <c r="M50">
+        <v>21</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K47">
-        <v>0.5357142857142857</v>
-      </c>
-      <c r="L47">
-        <v>15</v>
-      </c>
-      <c r="M47">
-        <v>15</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.005761316872427984</v>
-      </c>
-      <c r="C48">
-        <v>14</v>
-      </c>
-      <c r="D48">
-        <v>29</v>
-      </c>
-      <c r="E48">
-        <v>0.52</v>
-      </c>
-      <c r="F48">
-        <v>0.48</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2416</v>
-      </c>
-      <c r="J48" s="1" t="s">
+      <c r="K51">
+        <v>0.3287671232876712</v>
+      </c>
+      <c r="L51">
+        <v>24</v>
+      </c>
+      <c r="M51">
+        <v>24</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K48">
-        <v>0.5168539325842697</v>
-      </c>
-      <c r="L48">
-        <v>46</v>
-      </c>
-      <c r="M48">
-        <v>46</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.005337665351589696</v>
-      </c>
-      <c r="C49">
-        <v>23</v>
-      </c>
-      <c r="D49">
-        <v>42</v>
-      </c>
-      <c r="E49">
-        <v>0.45</v>
-      </c>
-      <c r="F49">
-        <v>0.55</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>4286</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="K52">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="L52">
+        <v>18</v>
+      </c>
+      <c r="M52">
+        <v>18</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K49">
-        <v>0.5</v>
-      </c>
-      <c r="L49">
-        <v>13</v>
-      </c>
-      <c r="M49">
-        <v>13</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.005224030540486237</v>
-      </c>
-      <c r="C50">
-        <v>26</v>
-      </c>
-      <c r="D50">
-        <v>45</v>
-      </c>
-      <c r="E50">
-        <v>0.42</v>
-      </c>
-      <c r="F50">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>4951</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="K50">
-        <v>0.4814814814814815</v>
-      </c>
-      <c r="L50">
-        <v>13</v>
-      </c>
-      <c r="M50">
-        <v>13</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="J51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K51">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="L51">
-        <v>20</v>
-      </c>
-      <c r="M51">
-        <v>20</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K52">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L52">
-        <v>13</v>
-      </c>
-      <c r="M52">
-        <v>13</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="K53">
-        <v>0.4509803921568628</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L53">
         <v>23</v>
@@ -3273,15 +3159,15 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K54">
-        <v>0.3777777777777778</v>
+        <v>0.265625</v>
       </c>
       <c r="L54">
         <v>17</v>
@@ -3299,423 +3185,345 @@
         <v>0</v>
       </c>
       <c r="Q54">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K55">
+        <v>0.2295081967213115</v>
+      </c>
+      <c r="L55">
+        <v>14</v>
+      </c>
+      <c r="M55">
+        <v>14</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K56">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>15</v>
+      </c>
+      <c r="N56">
+        <v>0.93</v>
+      </c>
+      <c r="O56">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K57">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="L57">
+        <v>16</v>
+      </c>
+      <c r="M57">
+        <v>16</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K58">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="L58">
+        <v>13</v>
+      </c>
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>0.93</v>
+      </c>
+      <c r="O58">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59">
+        <v>0.02335279399499583</v>
+      </c>
+      <c r="L59">
         <v>28</v>
       </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K55">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L55">
-        <v>25</v>
-      </c>
-      <c r="M55">
-        <v>25</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="J56" s="1" t="s">
+      <c r="M59">
+        <v>29</v>
+      </c>
+      <c r="N59">
+        <v>0.97</v>
+      </c>
+      <c r="O59">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K56">
-        <v>0.328125</v>
-      </c>
-      <c r="L56">
-        <v>21</v>
-      </c>
-      <c r="M56">
-        <v>21</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
+      <c r="K60">
+        <v>0.01015625</v>
+      </c>
+      <c r="L60">
+        <v>13</v>
+      </c>
+      <c r="M60">
+        <v>22</v>
+      </c>
+      <c r="N60">
+        <v>0.59</v>
+      </c>
+      <c r="O60">
+        <v>0.41</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K57">
-        <v>0.288135593220339</v>
-      </c>
-      <c r="L57">
+      <c r="K61">
+        <v>0.009767092411720512</v>
+      </c>
+      <c r="L61">
+        <v>26</v>
+      </c>
+      <c r="M61">
+        <v>37</v>
+      </c>
+      <c r="N61">
+        <v>0.7</v>
+      </c>
+      <c r="O61">
+        <v>0.3</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K62">
+        <v>0.00945179584120983</v>
+      </c>
+      <c r="L62">
+        <v>15</v>
+      </c>
+      <c r="M62">
+        <v>22</v>
+      </c>
+      <c r="N62">
+        <v>0.68</v>
+      </c>
+      <c r="O62">
+        <v>0.32</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K63">
+        <v>0.006270903010033445</v>
+      </c>
+      <c r="L63">
+        <v>15</v>
+      </c>
+      <c r="M63">
         <v>17</v>
       </c>
-      <c r="M57">
-        <v>17</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K58">
-        <v>0.282051282051282</v>
-      </c>
-      <c r="L58">
-        <v>22</v>
-      </c>
-      <c r="M58">
-        <v>22</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
+      <c r="N63">
+        <v>0.88</v>
+      </c>
+      <c r="O63">
+        <v>0.12</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K64">
+        <v>0.006236169784751559</v>
+      </c>
+      <c r="L64">
+        <v>31</v>
+      </c>
+      <c r="M64">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K59">
-        <v>0.07567567567567568</v>
-      </c>
-      <c r="L59">
-        <v>14</v>
-      </c>
-      <c r="M59">
-        <v>14</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K60">
-        <v>0.03614457831325301</v>
-      </c>
-      <c r="L60">
-        <v>15</v>
-      </c>
-      <c r="M60">
-        <v>16</v>
-      </c>
-      <c r="N60">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O60">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="J61" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K61">
-        <v>0.02591973244147157</v>
-      </c>
-      <c r="L61">
-        <v>31</v>
-      </c>
-      <c r="M61">
-        <v>35</v>
-      </c>
-      <c r="N61">
-        <v>0.89</v>
-      </c>
-      <c r="O61">
-        <v>0.11</v>
-      </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="J62" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K62">
-        <v>0.02376599634369287</v>
-      </c>
-      <c r="L62">
-        <v>13</v>
-      </c>
-      <c r="M62">
-        <v>13</v>
-      </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="J63" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="K63">
-        <v>0.0105026256564141</v>
-      </c>
-      <c r="L63">
-        <v>28</v>
-      </c>
-      <c r="M63">
-        <v>35</v>
-      </c>
-      <c r="N63">
-        <v>0.8</v>
-      </c>
-      <c r="O63">
-        <v>0.2</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>2638</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="J64" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K64">
-        <v>0.009445843828715366</v>
-      </c>
-      <c r="L64">
-        <v>15</v>
-      </c>
-      <c r="M64">
-        <v>21</v>
-      </c>
       <c r="N64">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="O64">
-        <v>0.29</v>
+        <v>0.45</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>1573</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K65">
-        <v>0.00919732441471572</v>
+        <v>0.005956112852664576</v>
       </c>
       <c r="L65">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M65">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N65">
-        <v>0.92</v>
+        <v>0.63</v>
       </c>
       <c r="O65">
-        <v>0.07999999999999996</v>
+        <v>0.37</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>2370</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="K66">
-        <v>0.006267627702914447</v>
+        <v>0.005109150023223409</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N66">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="O66">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>3171</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K67">
-        <v>0.006170300287947347</v>
+        <v>0.004669260700389105</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M67">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="N67">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="O67">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>2416</v>
-      </c>
-    </row>
-    <row r="68" spans="10:17">
-      <c r="J68" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K68">
-        <v>0.004413472706155633</v>
-      </c>
-      <c r="L68">
-        <v>19</v>
-      </c>
-      <c r="M68">
-        <v>42</v>
-      </c>
-      <c r="N68">
-        <v>0.45</v>
-      </c>
-      <c r="O68">
-        <v>0.55</v>
-      </c>
-      <c r="P68" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q68">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="69" spans="10:17">
-      <c r="J69" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K69">
-        <v>0.003897875657766517</v>
-      </c>
-      <c r="L69">
-        <v>20</v>
-      </c>
-      <c r="M69">
-        <v>54</v>
-      </c>
-      <c r="N69">
-        <v>0.37</v>
-      </c>
-      <c r="O69">
-        <v>0.63</v>
-      </c>
-      <c r="P69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q69">
-        <v>5111</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K70">
-        <v>0.003822937625754527</v>
-      </c>
-      <c r="L70">
-        <v>19</v>
-      </c>
-      <c r="M70">
-        <v>45</v>
-      </c>
-      <c r="N70">
-        <v>0.42</v>
-      </c>
-      <c r="O70">
-        <v>0.5800000000000001</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>4951</v>
+        <v>5116</v>
       </c>
     </row>
   </sheetData>
